--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H2">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I2">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J2">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.300973764756997</v>
+        <v>0.320299</v>
       </c>
       <c r="N2">
-        <v>0.300973764756997</v>
+        <v>0.640598</v>
       </c>
       <c r="O2">
-        <v>0.06070922213503462</v>
+        <v>0.05278086515463031</v>
       </c>
       <c r="P2">
-        <v>0.06070922213503462</v>
+        <v>0.04521377586037017</v>
       </c>
       <c r="Q2">
-        <v>0.1980505451899314</v>
+        <v>0.225215359159</v>
       </c>
       <c r="R2">
-        <v>0.1980505451899314</v>
+        <v>0.900861436636</v>
       </c>
       <c r="S2">
-        <v>0.003631080047494139</v>
+        <v>0.003205057328906488</v>
       </c>
       <c r="T2">
-        <v>0.003631080047494139</v>
+        <v>0.002189754582393036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H3">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I3">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J3">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.112718878154263</v>
+        <v>0.1195693333333333</v>
       </c>
       <c r="N3">
-        <v>0.112718878154263</v>
+        <v>0.358708</v>
       </c>
       <c r="O3">
-        <v>0.02273645152494963</v>
+        <v>0.01970337983976132</v>
       </c>
       <c r="P3">
-        <v>0.02273645152494963</v>
+        <v>0.02531781727592291</v>
       </c>
       <c r="Q3">
-        <v>0.07417269505092386</v>
+        <v>0.08407410060933335</v>
       </c>
       <c r="R3">
-        <v>0.07417269505092386</v>
+        <v>0.5044446036560001</v>
       </c>
       <c r="S3">
-        <v>0.001359890187679065</v>
+        <v>0.001196465078293915</v>
       </c>
       <c r="T3">
-        <v>0.001359890187679065</v>
+        <v>0.001226170682301601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H4">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I4">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J4">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.337224715412736</v>
+        <v>0.5543383333333333</v>
       </c>
       <c r="N4">
-        <v>0.337224715412736</v>
+        <v>1.663015</v>
       </c>
       <c r="O4">
-        <v>0.06802137779000447</v>
+        <v>0.09134732491112733</v>
       </c>
       <c r="P4">
-        <v>0.06802137779000447</v>
+        <v>0.1173765566898952</v>
       </c>
       <c r="Q4">
-        <v>0.2219048520489331</v>
+        <v>0.3897780100383333</v>
       </c>
       <c r="R4">
-        <v>0.2219048520489331</v>
+        <v>2.33866806023</v>
       </c>
       <c r="S4">
-        <v>0.004068427481198287</v>
+        <v>0.005546961239166552</v>
       </c>
       <c r="T4">
-        <v>0.004068427481198287</v>
+        <v>0.005684680122070867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H5">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I5">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J5">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03852224444556</v>
+        <v>1.072329333333333</v>
       </c>
       <c r="N5">
-        <v>1.03852224444556</v>
+        <v>3.216988</v>
       </c>
       <c r="O5">
-        <v>0.2094796457795064</v>
+        <v>0.1767051097381549</v>
       </c>
       <c r="P5">
-        <v>0.2094796457795064</v>
+        <v>0.2270568662054838</v>
       </c>
       <c r="Q5">
-        <v>0.6833814796793937</v>
+        <v>0.7539987197693333</v>
       </c>
       <c r="R5">
-        <v>0.6833814796793937</v>
+        <v>4.523992318616</v>
       </c>
       <c r="S5">
-        <v>0.01252918972432609</v>
+        <v>0.01073021454578818</v>
       </c>
       <c r="T5">
-        <v>0.01252918972432609</v>
+        <v>0.0109966222412549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H6">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I6">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J6">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.271698630155143</v>
+        <v>0.2850306666666667</v>
       </c>
       <c r="N6">
-        <v>0.271698630155143</v>
+        <v>0.8550920000000001</v>
       </c>
       <c r="O6">
-        <v>0.05480415379456999</v>
+        <v>0.04696912941429014</v>
       </c>
       <c r="P6">
-        <v>0.05480415379456999</v>
+        <v>0.06035288594094213</v>
       </c>
       <c r="Q6">
-        <v>0.1787865526187283</v>
+        <v>0.2004167479906667</v>
       </c>
       <c r="R6">
-        <v>0.1787865526187283</v>
+        <v>1.202500487944</v>
       </c>
       <c r="S6">
-        <v>0.003277891930827814</v>
+        <v>0.002852146360628982</v>
       </c>
       <c r="T6">
-        <v>0.003277891930827814</v>
+        <v>0.002922958899914807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H7">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I7">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J7">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.8964901828627</v>
+        <v>3.7169015</v>
       </c>
       <c r="N7">
-        <v>2.8964901828627</v>
+        <v>7.433803</v>
       </c>
       <c r="O7">
-        <v>0.5842491489759349</v>
+        <v>0.6124941909420358</v>
       </c>
       <c r="P7">
-        <v>0.5842491489759349</v>
+        <v>0.5246820980273859</v>
       </c>
       <c r="Q7">
-        <v>1.905984929671202</v>
+        <v>2.6135058376115</v>
       </c>
       <c r="R7">
-        <v>1.905984929671202</v>
+        <v>10.454023350446</v>
       </c>
       <c r="S7">
-        <v>0.03494453318629625</v>
+        <v>0.03719300526507581</v>
       </c>
       <c r="T7">
-        <v>0.03494453318629625</v>
+        <v>0.02541095068023486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H8">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I8">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J8">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.300973764756997</v>
+        <v>0.320299</v>
       </c>
       <c r="N8">
-        <v>0.300973764756997</v>
+        <v>0.640598</v>
       </c>
       <c r="O8">
-        <v>0.06070922213503462</v>
+        <v>0.05278086515463031</v>
       </c>
       <c r="P8">
-        <v>0.06070922213503462</v>
+        <v>0.04521377586037017</v>
       </c>
       <c r="Q8">
-        <v>1.331201883470264</v>
+        <v>1.508484227520667</v>
       </c>
       <c r="R8">
-        <v>1.331201883470264</v>
+        <v>9.050905365124001</v>
       </c>
       <c r="S8">
-        <v>0.02440639884944499</v>
+        <v>0.02146735660928722</v>
       </c>
       <c r="T8">
-        <v>0.02440639884944499</v>
+        <v>0.02200034399529316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H9">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I9">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J9">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.112718878154263</v>
+        <v>0.1195693333333333</v>
       </c>
       <c r="N9">
-        <v>0.112718878154263</v>
+        <v>0.358708</v>
       </c>
       <c r="O9">
-        <v>0.02273645152494963</v>
+        <v>0.01970337983976132</v>
       </c>
       <c r="P9">
-        <v>0.02273645152494963</v>
+        <v>0.02531781727592291</v>
       </c>
       <c r="Q9">
-        <v>0.4985536962756876</v>
+        <v>0.5631252468115557</v>
       </c>
       <c r="R9">
-        <v>0.4985536962756876</v>
+        <v>5.068127221304001</v>
       </c>
       <c r="S9">
-        <v>0.009140537216976745</v>
+        <v>0.008013879275930931</v>
       </c>
       <c r="T9">
-        <v>0.009140537216976745</v>
+        <v>0.0123192694854864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H10">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I10">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J10">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.337224715412736</v>
+        <v>0.5543383333333333</v>
       </c>
       <c r="N10">
-        <v>0.337224715412736</v>
+        <v>1.663015</v>
       </c>
       <c r="O10">
-        <v>0.06802137779000447</v>
+        <v>0.09134732491112733</v>
       </c>
       <c r="P10">
-        <v>0.06802137779000447</v>
+        <v>0.1173765566898952</v>
       </c>
       <c r="Q10">
-        <v>1.49153922659208</v>
+        <v>2.610718836285556</v>
       </c>
       <c r="R10">
-        <v>1.49153922659208</v>
+        <v>23.49646952657</v>
       </c>
       <c r="S10">
-        <v>0.02734604098433292</v>
+        <v>0.03715334323199447</v>
       </c>
       <c r="T10">
-        <v>0.02734604098433292</v>
+        <v>0.05711366889895449</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H11">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I11">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J11">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.03852224444556</v>
+        <v>1.072329333333333</v>
       </c>
       <c r="N11">
-        <v>1.03852224444556</v>
+        <v>3.216988</v>
       </c>
       <c r="O11">
-        <v>0.2094796457795064</v>
+        <v>0.1767051097381549</v>
       </c>
       <c r="P11">
-        <v>0.2094796457795064</v>
+        <v>0.2270568662054838</v>
       </c>
       <c r="Q11">
-        <v>4.593366365164409</v>
+        <v>5.05025581110489</v>
       </c>
       <c r="R11">
-        <v>4.593366365164409</v>
+        <v>45.452302299944</v>
       </c>
       <c r="S11">
-        <v>0.08421527415329275</v>
+        <v>0.07187058405198236</v>
       </c>
       <c r="T11">
-        <v>0.08421527415329275</v>
+        <v>0.1104824595592402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H12">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I12">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J12">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.271698630155143</v>
+        <v>0.2850306666666667</v>
       </c>
       <c r="N12">
-        <v>0.271698630155143</v>
+        <v>0.8550920000000001</v>
       </c>
       <c r="O12">
-        <v>0.05480415379456999</v>
+        <v>0.04696912941429014</v>
       </c>
       <c r="P12">
-        <v>0.05480415379456999</v>
+        <v>0.06035288594094213</v>
       </c>
       <c r="Q12">
-        <v>1.201718457058336</v>
+        <v>1.342384038121778</v>
       </c>
       <c r="R12">
-        <v>1.201718457058336</v>
+        <v>12.081456343096</v>
       </c>
       <c r="S12">
-        <v>0.02203243574990069</v>
+        <v>0.01910357186852351</v>
       </c>
       <c r="T12">
-        <v>0.02203243574990069</v>
+        <v>0.02936680749490822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H13">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I13">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J13">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.8964901828627</v>
+        <v>3.7169015</v>
       </c>
       <c r="N13">
-        <v>2.8964901828627</v>
+        <v>7.433803</v>
       </c>
       <c r="O13">
-        <v>0.5842491489759349</v>
+        <v>0.6124941909420358</v>
       </c>
       <c r="P13">
-        <v>0.5842491489759349</v>
+        <v>0.5246820980273859</v>
       </c>
       <c r="Q13">
-        <v>12.81112720902135</v>
+        <v>17.50516638515234</v>
       </c>
       <c r="R13">
-        <v>12.81112720902135</v>
+        <v>105.030998310914</v>
       </c>
       <c r="S13">
-        <v>0.2348805874276969</v>
+        <v>0.249117387135441</v>
       </c>
       <c r="T13">
-        <v>0.2348805874276969</v>
+        <v>0.2553024255355812</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H14">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I14">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J14">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.300973764756997</v>
+        <v>0.320299</v>
       </c>
       <c r="N14">
-        <v>0.300973764756997</v>
+        <v>0.640598</v>
       </c>
       <c r="O14">
-        <v>0.06070922213503462</v>
+        <v>0.05278086515463031</v>
       </c>
       <c r="P14">
-        <v>0.06070922213503462</v>
+        <v>0.04521377586037017</v>
       </c>
       <c r="Q14">
-        <v>0.2788420772542785</v>
+        <v>0.3742619078566666</v>
       </c>
       <c r="R14">
-        <v>0.2788420772542785</v>
+        <v>2.24557144714</v>
       </c>
       <c r="S14">
-        <v>0.005112320706559227</v>
+        <v>0.005326150379733542</v>
       </c>
       <c r="T14">
-        <v>0.005112320706559227</v>
+        <v>0.005458387013243445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H15">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I15">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J15">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.112718878154263</v>
+        <v>0.1195693333333333</v>
       </c>
       <c r="N15">
-        <v>0.112718878154263</v>
+        <v>0.358708</v>
       </c>
       <c r="O15">
-        <v>0.02273645152494963</v>
+        <v>0.01970337983976132</v>
       </c>
       <c r="P15">
-        <v>0.02273645152494963</v>
+        <v>0.02531781727592291</v>
       </c>
       <c r="Q15">
-        <v>0.1044302521041443</v>
+        <v>0.1397139760488889</v>
       </c>
       <c r="R15">
-        <v>0.1044302521041443</v>
+        <v>1.25742578444</v>
       </c>
       <c r="S15">
-        <v>0.001914635500783357</v>
+        <v>0.00198828048210522</v>
       </c>
       <c r="T15">
-        <v>0.001914635500783357</v>
+        <v>0.003056467689169385</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H16">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I16">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J16">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.337224715412736</v>
+        <v>0.5543383333333333</v>
       </c>
       <c r="N16">
-        <v>0.337224715412736</v>
+        <v>1.663015</v>
       </c>
       <c r="O16">
-        <v>0.06802137779000447</v>
+        <v>0.09134732491112733</v>
       </c>
       <c r="P16">
-        <v>0.06802137779000447</v>
+        <v>0.1173765566898952</v>
       </c>
       <c r="Q16">
-        <v>0.3124273646345588</v>
+        <v>0.6477314079388887</v>
       </c>
       <c r="R16">
-        <v>0.3124273646345588</v>
+        <v>5.82958267145</v>
       </c>
       <c r="S16">
-        <v>0.005728076986245006</v>
+        <v>0.009217916148923949</v>
       </c>
       <c r="T16">
-        <v>0.005728076986245006</v>
+        <v>0.01417016518757325</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H17">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I17">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J17">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.03852224444556</v>
+        <v>1.072329333333333</v>
       </c>
       <c r="N17">
-        <v>1.03852224444556</v>
+        <v>3.216988</v>
       </c>
       <c r="O17">
-        <v>0.2094796457795064</v>
+        <v>0.1767051097381549</v>
       </c>
       <c r="P17">
-        <v>0.2094796457795064</v>
+        <v>0.2270568662054838</v>
       </c>
       <c r="Q17">
-        <v>0.9621559545224228</v>
+        <v>1.252991804982222</v>
       </c>
       <c r="R17">
-        <v>0.9621559545224228</v>
+        <v>11.27692624484</v>
       </c>
       <c r="S17">
-        <v>0.0176402710009892</v>
+        <v>0.01783142403171021</v>
       </c>
       <c r="T17">
-        <v>0.0176402710009892</v>
+        <v>0.02741120877829778</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H18">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I18">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J18">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.271698630155143</v>
+        <v>0.2850306666666667</v>
       </c>
       <c r="N18">
-        <v>0.271698630155143</v>
+        <v>0.8550920000000001</v>
       </c>
       <c r="O18">
-        <v>0.05480415379456999</v>
+        <v>0.04696912941429014</v>
       </c>
       <c r="P18">
-        <v>0.05480415379456999</v>
+        <v>0.06035288594094213</v>
       </c>
       <c r="Q18">
-        <v>0.2517196489892422</v>
+        <v>0.3330516832844445</v>
       </c>
       <c r="R18">
-        <v>0.2517196489892422</v>
+        <v>2.99746514956</v>
       </c>
       <c r="S18">
-        <v>0.004615055182658153</v>
+        <v>0.004739684462025706</v>
       </c>
       <c r="T18">
-        <v>0.004615055182658153</v>
+        <v>0.007286040649406279</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H19">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I19">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J19">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.8964901828627</v>
+        <v>3.7169015</v>
       </c>
       <c r="N19">
-        <v>2.8964901828627</v>
+        <v>7.433803</v>
       </c>
       <c r="O19">
-        <v>0.5842491489759349</v>
+        <v>0.6124941909420358</v>
       </c>
       <c r="P19">
-        <v>0.5842491489759349</v>
+        <v>0.5246820980273859</v>
       </c>
       <c r="Q19">
-        <v>2.683500802763188</v>
+        <v>4.343112675048333</v>
       </c>
       <c r="R19">
-        <v>2.683500802763188</v>
+        <v>26.05867605029</v>
       </c>
       <c r="S19">
-        <v>0.04919959302815032</v>
+        <v>0.06180717496981625</v>
       </c>
       <c r="T19">
-        <v>0.04919959302815032</v>
+        <v>0.06334171157919656</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H20">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I20">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J20">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.300973764756997</v>
+        <v>0.320299</v>
       </c>
       <c r="N20">
-        <v>0.300973764756997</v>
+        <v>0.640598</v>
       </c>
       <c r="O20">
-        <v>0.06070922213503462</v>
+        <v>0.05278086515463031</v>
       </c>
       <c r="P20">
-        <v>0.06070922213503462</v>
+        <v>0.04521377586037017</v>
       </c>
       <c r="Q20">
-        <v>1.503177728416423</v>
+        <v>1.6008837093585</v>
       </c>
       <c r="R20">
-        <v>1.503177728416423</v>
+        <v>6.403534837434</v>
       </c>
       <c r="S20">
-        <v>0.02755942253153627</v>
+        <v>0.02278230083670305</v>
       </c>
       <c r="T20">
-        <v>0.02755942253153627</v>
+        <v>0.01556529026944052</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H21">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I21">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J21">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.112718878154263</v>
+        <v>0.1195693333333333</v>
       </c>
       <c r="N21">
-        <v>0.112718878154263</v>
+        <v>0.358708</v>
       </c>
       <c r="O21">
-        <v>0.02273645152494963</v>
+        <v>0.01970337983976132</v>
       </c>
       <c r="P21">
-        <v>0.02273645152494963</v>
+        <v>0.02531781727592291</v>
       </c>
       <c r="Q21">
-        <v>0.5629610519387757</v>
+        <v>0.597618468594</v>
       </c>
       <c r="R21">
-        <v>0.5629610519387757</v>
+        <v>3.585710811564</v>
       </c>
       <c r="S21">
-        <v>0.01032138861951046</v>
+        <v>0.008504755003431251</v>
       </c>
       <c r="T21">
-        <v>0.01032138861951046</v>
+        <v>0.008715909418965518</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H22">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I22">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J22">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.337224715412736</v>
+        <v>0.5543383333333333</v>
       </c>
       <c r="N22">
-        <v>0.337224715412736</v>
+        <v>1.663015</v>
       </c>
       <c r="O22">
-        <v>0.06802137779000447</v>
+        <v>0.09134732491112733</v>
       </c>
       <c r="P22">
-        <v>0.06802137779000447</v>
+        <v>0.1173765566898952</v>
       </c>
       <c r="Q22">
-        <v>1.684228796783214</v>
+        <v>2.7706337119575</v>
       </c>
       <c r="R22">
-        <v>1.684228796783214</v>
+        <v>16.623802271745</v>
       </c>
       <c r="S22">
-        <v>0.03087883233822826</v>
+        <v>0.03942910429104235</v>
       </c>
       <c r="T22">
-        <v>0.03087883233822826</v>
+        <v>0.04040804248129659</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H23">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I23">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J23">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.03852224444556</v>
+        <v>1.072329333333333</v>
       </c>
       <c r="N23">
-        <v>1.03852224444556</v>
+        <v>3.216988</v>
       </c>
       <c r="O23">
-        <v>0.2094796457795064</v>
+        <v>0.1767051097381549</v>
       </c>
       <c r="P23">
-        <v>0.2094796457795064</v>
+        <v>0.2270568662054838</v>
       </c>
       <c r="Q23">
-        <v>5.186776028721321</v>
+        <v>5.359600126134</v>
       </c>
       <c r="R23">
-        <v>5.186776028721321</v>
+        <v>32.157600756804</v>
       </c>
       <c r="S23">
-        <v>0.0950949109008984</v>
+        <v>0.07627288710867416</v>
       </c>
       <c r="T23">
-        <v>0.0950949109008984</v>
+        <v>0.07816657562669088</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H24">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I24">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J24">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.271698630155143</v>
+        <v>0.2850306666666667</v>
       </c>
       <c r="N24">
-        <v>0.271698630155143</v>
+        <v>0.8550920000000001</v>
       </c>
       <c r="O24">
-        <v>0.05480415379456999</v>
+        <v>0.04696912941429014</v>
       </c>
       <c r="P24">
-        <v>0.05480415379456999</v>
+        <v>0.06035288594094213</v>
       </c>
       <c r="Q24">
-        <v>1.356966544975136</v>
+        <v>1.424609352306</v>
       </c>
       <c r="R24">
-        <v>1.356966544975136</v>
+        <v>8.547656113836</v>
       </c>
       <c r="S24">
-        <v>0.02487877093118334</v>
+        <v>0.02027372672311193</v>
       </c>
       <c r="T24">
-        <v>0.02487877093118334</v>
+        <v>0.02077707889671282</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H25">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I25">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J25">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.8964901828627</v>
+        <v>3.7169015</v>
       </c>
       <c r="N25">
-        <v>2.8964901828627</v>
+        <v>7.433803</v>
       </c>
       <c r="O25">
-        <v>0.5842491489759349</v>
+        <v>0.6124941909420358</v>
       </c>
       <c r="P25">
-        <v>0.5842491489759349</v>
+        <v>0.5246820980273859</v>
       </c>
       <c r="Q25">
-        <v>14.46617626945441</v>
+        <v>18.57741379348725</v>
       </c>
       <c r="R25">
-        <v>14.46617626945441</v>
+        <v>74.309655173949</v>
       </c>
       <c r="S25">
-        <v>0.2652244353337915</v>
+        <v>0.2643766235717028</v>
       </c>
       <c r="T25">
-        <v>0.2652244353337915</v>
+        <v>0.1806270102323732</v>
       </c>
     </row>
   </sheetData>
